--- a/Risk Rating Criteria.xlsx
+++ b/Risk Rating Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Documents\Risk &amp; Compliance\Risk Management\Risk Register\Risk Incident Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Automated-risk-system-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A8ABF5-DD39-4CAA-B048-7D1462FDC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E625BAB-CA21-4CB9-B21B-47CDFF9B22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43A264FE-7EC4-4ABF-A944-DCA2608B39D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{43A264FE-7EC4-4ABF-A944-DCA2608B39D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Rating Criteria" sheetId="1" r:id="rId1"/>
@@ -544,10 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,10 +886,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196EF16B-69D2-40DA-9491-4CE881274A41}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
